--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5244">
   <si>
     <t>translation_group</t>
   </si>
@@ -15703,12 +15703,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ειδοποιήσεις</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16095,17 +16089,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54752,18 +54746,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5228</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5229</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54773,10 +54759,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
       <c r="D2763" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54787,10 +54773,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
       <c r="D2764" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54801,10 +54787,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="D2765" t="s">
-        <v>5235</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54815,10 +54801,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
       <c r="D2766" t="s">
-        <v>5237</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54829,10 +54815,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5238</v>
+        <v>5236</v>
       </c>
       <c r="D2767" t="s">
-        <v>5239</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54843,10 +54829,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5240</v>
+        <v>5238</v>
       </c>
       <c r="D2768" t="s">
-        <v>5241</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54857,10 +54843,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
       <c r="D2769" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54899,11 +54885,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
       <c r="D2772" t="s">
-        <v>5245</v>
-      </c>
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5936">
   <si>
     <t>translation_group</t>
   </si>
@@ -10247,7 +10247,7 @@
     <t>Ρυθμίσεις Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Συμπληρώστε τα πεδία για μέγιστα αποτελέσματα κατά την εύρεση του ιστότοπού σας σε μηχανές αναζήτησης.</t>
@@ -17227,6 +17227,616 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Καλώς ήλθατε στο Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Χρησιμοποιήστε το Microweber για να δημιουργήσετε τον ιστότοπό σας, το ηλεκτρονικό κατάστημα ή το ιστολόγιό σας.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε και επεξεργαστείτε περιεχόμενο, πωλήστε online, διαχειριστείτε παραγγελίες και πελάτες.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Αφαιρώ</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Εγκαταλελειμμένο καλάθι</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Χρησιμοποιείτε αυτό το πρότυπο.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Η αλλαγή θα επηρεάσει μόνο την τρέχουσα σελίδα.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Να επιτρέπονται πολλά πρότυπα</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Εάν επιτρέπετε πολλά πρότυπα, θα είστε σε θέση να χρησιμοποιείτε διαφορετικά πρότυπα όταν δημιουργείτε νέες σελίδες.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Ρυθμίσεις ιστότοπου ηλεκτρονικού ταχυδρομείου συστήματος</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Παράδοση μηνυμάτων που σχετίζονται με νέα εγγραφή, επαναφορά κωδικού πρόσβασης και άλλες λειτουργίες συστήματος.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Από διεύθυνση e-mail</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Πρώην. Το όνομα του ιστότοπού σας</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Γενικές ρυθμίσεις του παρόχου e-mail</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Ρυθμίστε τον παροχέα email σας.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Ο γενικός πάροχος e-mail θα παραδώσει όλα τα μηνύματα που σχετίζονται με τον ιστότοπο. Συμπεριλαμβανομένων μηνυμάτων συστήματος και μηνυμάτων φόρμας επικοινωνίας.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Λογότυπο ιστότοπου</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Επιλέξτε ένα λογότυπο για τον ιστότοπό σας.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Μεταφόρτωση λογότυπου</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Ιστοσελίδα Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Αλλαγή προεπιλεγμένης γλώσσας ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Εκκαθάριση προσωρινής μνήμης..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Εγκατάσταση πολυγλωσσικής μονάδας</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Οι εγγεγραμμένοι χρήστες μπορούν να λάβουν αυτόματα ένα αυτόματο email από εσάς. Δείτε τις ρυθμίσεις και δημοσιεύστε τα μηνύματά σας.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Στείλτε email σχετικά με την εγγραφή νέου χρήστη σε χρήστες admin</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Θέλετε οι διαχειριστές να λαμβάνουν ένα e-mail όταν είναι εγγεγραμμένος νέος χρήστης;</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Το Microweber είναι δωρεάν πρόγραμμα δημιουργίας ιστότοπων μεταφοράς και απόθεσης ανοιχτού κώδικα και CMS. Είναι με άδεια MIT και χρησιμοποιούμε το Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Ένα ρυθμιστικό</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Αποστολή προς διεύθυνση</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Παραλαβή από διεύθυνση</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Γενικές ρυθμίσεις</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Ενσωματώσεις ηλεκτρονικού ταχυδρομείου</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Δεν έχετε ρύθμιση e-mail και smtp συστήματος.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Ρυθμίστε τις ρυθμίσεις του συστήματός σας εδώ.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Ρυθμίσεις φόρμας καθολικής επαφής</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Επιλογές αποστολής e-mail</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Παγκόσμιος αποστολέας</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Χρησιμοποιήστε προσαρμοσμένες ρυθμίσεις αποστολέα</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Χρησιμοποιήστε προσαρμοσμένες ρυθμίσεις αποστολέα για τις καθολικές φόρμες επαφών.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Από προεπιλογή, θα χρησιμοποιήσουμε τις ρυθμίσεις e-mail του συστήματος ιστότοπων.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Μπορείτε να αλλάξετε τις ρυθμίσεις ηλεκτρονικού ταχυδρομείου συστήματος εδώ.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Παγκόσμιοι δέκτες</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Στείλτε δεδομένα φόρμας επικοινωνίας σε παγκόσμιους δέκτες όταν υποβληθούν</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Σε διευθύνσεις e-mail</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Η διεύθυνση e-mail των δεκτών διαχωρίζεται με κώμα.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Επικοινωνήστε με τον πάροχο φιλοξενίας σας για να ενεργοποιήσετε την επέκταση PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Στοιχεία</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 μήνες πριν</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Κατάργηση λογότυπου</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Κατάργηση favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Εθιμο</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Προϊόντα V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Χρονοδιάγραμμα</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Λευκή ετικέτα WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Το πρότυπο ενότητας έχει αλλάξει</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Εκδόσεις περιεχομένου</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Προεπιλεγμένες διατάξεις και στοιχεία</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Λίστα βελών</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Ελεγμένη λίστα</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Κείμενο φόντου</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Τίτλος με κείμενο</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Εικονίδιο με κείμενο</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Δύο στήλες κειμένου</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Δύο στήλες κειμένου με εικονίδιο και τίτλο</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Εικόνα με τίτλο και κείμενο</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Κείμενο με εικόνα και τίτλο</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Ενεργοποίηση σχολίων</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Ρυθμίσεις Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ρυθμίστε τις προτιμήσεις captcha από </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Τρέχουσες ρυθμίσεις φόρμας επικοινωνίας</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Όνομα φόρμας επικοινωνίας</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Ποιο είναι το όνομα αυτής της φόρμας επικοινωνίας;</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Δέκτες</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Αποστολή δεδομένων φόρμας επικοινωνίας σε προσαρμοσμένους δέκτες όταν υποβληθεί</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Χρησιμοποιήστε προσαρμοσμένες ρυθμίσεις δεκτών για την τρέχουσα φόρμα επικοινωνίας.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Από προεπιλογή, θα χρησιμοποιήσουμε τις καθολικές ρυθμίσεις φόρμας επικοινωνίας.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Μπορείτε να αλλάξετε τις καθολικές ρυθμίσεις της φόρμας επικοινωνίας εδώ.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση μηνύματος στο χρήστη</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Ενεργοποιήστε το μήνυμα αυτόματης απάντησης στο χρήστη</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Επιτρέψτε στους χρήστες να λαμβάνουν "Ευχαριστήρια μηνύματα ηλεκτρονικού ταχυδρομείου μετά τη συνδρομή."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Θέμα αυτόματης απόκρισης</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Οι αυτόματες απαντήσεις σάς επιτρέπουν να ρυθμίζετε αυτοματοποιημένες απαντήσεις σε εισερχόμενα email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση μηνύματος</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση e-mail που επιστρέφεται στον χρήστη</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Αυτόματη απόκριση προσαρμοσμένου αποστολέα</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Χρησιμοποιήστε προσαρμοσμένες ρυθμίσεις αποστολέα για την τρέχουσα φόρμα επικοινωνίας.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση από τη διεύθυνση e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση από το όνομα</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση απάντησης σε e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Όταν ο χρήστης λάβει το μήνυμα αυτόματης απάντησης, μπορεί να απαντήσει πίσω για να απαντήσει σε email.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Αυτόματη απάντηση συνημμένων ηλεκτρονικού ταχυδρομείου</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Αν θέλετε να επισυνάψετε εικόνες og, πρέπει να τις ανεβάσετε στη συλλογή από το "Προσθήκη μέσων"</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Δεν έχετε ακόμα δημοσιεύσεις</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε την πρώτη σας ανάρτηση τώρα.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε μια ανάρτηση</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Πώς να γράψετε περιγραφές προϊόντων που πωλούν
+                                                    Ένα από τα καλύτερα πράγματα που μπορείτε να κάνετε για να κάνετε το κατάστημά σας επιτυχημένο είναι να επενδύσετε λίγο χρόνο στη σύνταξη εξαιρετικών περιγραφών προϊόντων. Θέλετε να παράσχετε λεπτομερείς αλλά συνοπτικές πληροφορίες που θα προσελκύσουν δυνητικούς πελάτες να αγοράσουν.
+                                                    Σκεφτείτε σαν καταναλωτής
+                                                    Σκεφτείτε τι θα θέλατε να γνωρίζετε ως καταναλωτής και, στη συνέχεια, συμπεριλάβετε αυτές τις λειτουργίες στην περιγραφή σας. Για ρούχα: υλικά και εφαρμογή. Για φαγητό: συστατικά και πώς παρασκευάστηκε. Οι κουκκίδες είναι οι φίλοι σας κατά την καταχώριση λειτουργιών
+                                                   - προσπαθήστε να
+                                                            περιορίσετε κάθε μία σε 5-8 λέξεις.</t>
   </si>
 </sst>
 </file>
@@ -17565,7 +18175,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67873,6 +68483,1757 @@
         <v>3654</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4952</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5933</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6234">
   <si>
     <t>translation_group</t>
   </si>
@@ -17837,6 +17837,900 @@
                                                     Σκεφτείτε τι θα θέλατε να γνωρίζετε ως καταναλωτής και, στη συνέχεια, συμπεριλάβετε αυτές τις λειτουργίες στην περιγραφή σας. Για ρούχα: υλικά και εφαρμογή. Για φαγητό: συστατικά και πώς παρασκευάστηκε. Οι κουκκίδες είναι οι φίλοι σας κατά την καταχώριση λειτουργιών
                                                    - προσπαθήστε να
                                                             περιορίσετε κάθε μία σε 5-8 λέξεις.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Γλώσσα διαχειριστή</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Οριο</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Επεξεργαστής κώδικα</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Ιστολόγιο</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>τίτλους</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Τίτλοι 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Τίτλοι 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Τίτλοι 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Τίτλοι 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Τίτλοι 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Τίτλοι 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Τίτλοι 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Τίτλοι 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>μπλοκ κειμένου</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Μπλοκ κειμένου 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>χαρακτηριστικά</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Χαρακτηριστικά 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Χαρακτηριστικά 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Χαρακτηριστικά 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Χαρακτηριστικά 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>πλέγματα</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>μενού</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Μενού - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Μενού - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Μενού - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Μενού - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Μενού - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>υποσέλιδα</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Υποσέλιδα 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Υποσέλιδα 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Υποσέλιδα 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Υποσέλιδα 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>άλλα</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>τιμολόγηση</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Τιμολόγηση 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Προεπιλεγμένες διατάξεις</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Δεν υπάρχει περιεχόμενο εδώ</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Τα προσαρμοσμένα πεδία αποθηκεύονται</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Υπάρχοντα πεδία</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Επιλέξτε από τα υπάρχοντα πεδία σας παρακάτω</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Προσθήκη νέων πεδίων</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Προσθήκη νέου προσαρμοσμένου πεδίου από τη λίστα παρακάτω</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Τα χωράφια σας</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Λίστα με τα προσαρμοσμένα πεδία που έχετε προσθέσει</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">επαναλάβετε κάθετα </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Οικογένεια γραμματοσειρών</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Επικάλυμμα</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Λειτουργία ανάμειξης</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Δοχείο</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Τύπος δοχείου</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Κινούμενα σχέδια</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Επαναφόρτωση στυλ</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Σύνδεσμοι προς</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Προεπισκόπηση πακέτου</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Διαδήλωση</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Χρήση</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Ρεύμα</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Παραγγέλλω πάλι</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Σύστημα</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ανακατεύθυνση προγράμματος περιήγησης</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Ενσωμάτωση</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Αυτόνομη ενημέρωση</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Χρειάζεστε κλειδί άδειας χρήσης για να εγκαταστήσετε αυτό το πακέτο</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Αυτό το πακέτο είναι premium και πρέπει να έχετε κλειδί άδειας χρήσης για να το εγκαταστήσετε</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Χρειάζεστε κλειδί άδειας χρήσης</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Ενεργοποιήθηκε η άδεια</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Επαναφόρτωση σελίδας</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Η άδεια δεν ενεργοποιήθηκε</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Ενημερώσεις συστήματος</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Ελέγξτε για ενημερώσεις συστήματος</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Πίσω στη λίστα</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Η κατηγορία πρέπει να έχει όνομα</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Κρύβεται η κατηγορία;</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Εάν το ορίσετε σε ΝΑΙ, αυτή η κατηγορία θα κρυφτεί από τον ιστότοπο</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Αναφορά</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Το καλάθι σας είναι άδειο.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Βρέθηκαν αποτελέσματα</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Εάν επιλέξετε το Ποσοστό από το πεδίο επιλογής, θα υπολογιστεί αυτόματα από την Τιμή και την τιμή προσφοράς του προϊόντος.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>custom.multillanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Προχωρήστε στο Checkout</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Τελευταία έκδοση</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Εμφάνιση</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>του</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>Αποτελέσματα)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Τίτλος σελίδας - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Τίτλος σελίδας - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Οροι χρήσης</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Παράδοση και επιστροφές</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Περίπου 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Περίπου 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Περίπου 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Σπίτι 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Σπίτι 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Πρέπει να κάνετε κλικ στο κουμπί εφαρμογής προτύπου για να αλλάξετε το πρότυπό σας</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Αναζήτηση με κριτήρια</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Ημερομηνία από</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Ορίστε τις παραγγελίες από την ημερομηνία</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Ημερομηνία έως</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Ορίστε τις παραγγελίες μέχρι σήμερα</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Ποσό παραγγελίας από</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Εμφάνιση της παραγγελίας με το ελάχιστο ποσό</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Ποσό παραγγελίας σε</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Εμφάνιση της παραγγελίας με το μέγιστο ποσό</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Αναζήτηση ανά προϊόντα...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Αναζήτηση ανά προϊόντα</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Κατάσταση πληρωμής</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Δωρεάν αναζήτηση μέσω τηλεφώνου, ονόματος, email κλπ...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Υποβάλετε αυτό το κριτήριο</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Επαναφορά φίλτρου</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Εξαγωγή όλων</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Επιλέξτε ταξινόμηση</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Ημερομηνία παραγγελίας</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Νέο &gt; Παλιό]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Παλιό &gt; Νέο]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Υψηλό &gt; Χαμηλό]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Χαμηλό &gt; Υψηλό]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Η παραγγελία ολοκληρώθηκε</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>μεταφράσεις από την ενότητα multilnaguage έχουν βρεθεί στη βάση δεδομένων σας.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Προειδοποίηση! Η αλλαγή της προεπιλεγμένης γλώσσας μπορεί να σπάσει τις μεταφράσεις στον ιστότοπό σας.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Είστε βέβαιοι ότι θέλετε να συνεχίσετε;</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Προειδοποίηση! Η αλλαγή της προεπιλεγμένης γλώσσας ενδέχεται να χαλάσει τον ιστότοπό σας.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Λεπτομέρειες αποστολής</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>η παραγγελία δεν έχει ολοκληρωθεί ακόμα</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>η παραγγελία ολοκληρώθηκε</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Γρήγορη ματιά </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Αντικαταστήστε τις γλωσσικές τιμές</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Οι μεταφράσεις εισάγονται</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δεν βρέθηκαν μεταφράσεις στη βάση δεδομένων. Θέλετε να εισάγετε μεταφράσεις; </t>
   </si>
 </sst>
 </file>
@@ -17860,10 +18754,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17874,7 +18765,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18175,7 +19066,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70237,8 +71128,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6115</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5933</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6206</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6207</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6220</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6221</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6222</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6223</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6226</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6227</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6228</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6229</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6230</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6231</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6232</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6233</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70250,5 +73775,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/el_GR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6044">
   <si>
     <t>translation_group</t>
   </si>
@@ -10250,7 +10250,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Συμπληρώστε τα πεδία για μέγιστα αποτελέσματα κατά την εύρεση του ιστότοπού σας σε μηχανές αναζήτησης.</t>
+    <t>Συμπληρώστε τα πεδία για μέγιστα αποτελέσματα όταν βρίσκετε τον ιστότοπό σας στις μηχανές αναζήτησης.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17232,19 +17232,19 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Καλώς ήλθατε στο Microweber</t>
+    <t>Καλώς ήρθατε στο Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Χρησιμοποιήστε το Microweber για να δημιουργήσετε τον ιστότοπό σας, το ηλεκτρονικό κατάστημα ή το ιστολόγιό σας.</t>
+    <t>Χρησιμοποιήστε το Microweber για να δημιουργήσετε τον ιστότοπο, το ηλεκτρονικό κατάστημα ή το blog σας.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Δημιουργήστε και επεξεργαστείτε περιεχόμενο, πωλήστε online, διαχειριστείτε παραγγελίες και πελάτες.</t>
+    <t>Δημιουργήστε και επεξεργαστείτε περιεχόμενο, πουλήστε online, διαχειριστείτε παραγγελίες και πελάτες.</t>
   </si>
   <si>
     <t>Remove</t>
@@ -17256,9 +17256,6 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Εγκαταλελειμμένο καλάθι</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -17274,13 +17271,13 @@
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Να επιτρέπονται πολλά πρότυπα</t>
+    <t>Επιτρέψτε πολλά πρότυπα</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Εάν επιτρέπετε πολλά πρότυπα, θα είστε σε θέση να χρησιμοποιείτε διαφορετικά πρότυπα όταν δημιουργείτε νέες σελίδες.</t>
+    <t>Εάν επιτρέπετε πολλά πρότυπα, θα μπορείτε να χρησιμοποιείτε διαφορετικά πρότυπα όταν δημιουργείτε νέες σελίδες.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17292,13 +17289,13 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Παράδοση μηνυμάτων που σχετίζονται με νέα εγγραφή, επαναφορά κωδικού πρόσβασης και άλλες λειτουργίες συστήματος.</t>
+    <t>Παραδώστε μηνύματα που σχετίζονται με νέα εγγραφή, επαναφορά κωδικού πρόσβασης και άλλες λειτουργίες συστήματος.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Από διεύθυνση e-mail</t>
+    <t>Από τη διεύθυνση ηλεκτρονικού ταχυδρομείου</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
@@ -17310,25 +17307,25 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Γενικές ρυθμίσεις του παρόχου e-mail</t>
+    <t>Γενικές ρυθμίσεις παρόχου ηλεκτρονικού ταχυδρομείου</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Ρυθμίστε τον παροχέα email σας.</t>
+    <t>Ρυθμίστε τον πάροχο email σας.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Ο γενικός πάροχος e-mail θα παραδώσει όλα τα μηνύματα που σχετίζονται με τον ιστότοπο. Συμπεριλαμβανομένων μηνυμάτων συστήματος και μηνυμάτων φόρμας επικοινωνίας.</t>
+    <t>Ο γενικός πάροχος e-mail θα παραδώσει όλα τα μηνύματα που σχετίζονται με τον ιστότοπο. Συμπεριλαμβανομένων των μηνυμάτων συστήματος και των μηνυμάτων της φόρμας επικοινωνίας.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Λογότυπο ιστότοπου</t>
+    <t>Λογότυπο ιστοσελίδας</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17346,13 +17343,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Ιστοσελίδα Favicon</t>
+    <t>Favicon ιστότοπου</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Αλλαγή προεπιλεγμένης γλώσσας ..</t>
+    <t>Αλλαγή προεπιλεγμένης γλώσσας..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17364,52 +17361,55 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Εγκατάσταση πολυγλωσσικής μονάδας</t>
+    <t>Εγκαταστήστε το Multilanguage Module</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Οι χρήστες μπορούν να εγγραφούν με προσωρινά email όπως - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Οι εγγεγραμμένοι χρήστες μπορούν να λάβουν αυτόματα ένα αυτόματο email από εσάς. Δείτε τις ρυθμίσεις και δημοσιεύστε τα μηνύματά σας.</t>
+    <t>Οι εγγεγραμμένοι χρήστες μπορούν να λαμβάνουν αυτόματα ένα αυτόματο email από εσάς. Δείτε τις ρυθμίσεις και δημοσιεύστε τα μηνύματά σας.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Στείλτε email σχετικά με την εγγραφή νέου χρήστη σε χρήστες admin</t>
+    <t>Στείλτε email με την εγγραφή νέου χρήστη σε χρήστες διαχειριστή</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Θέλετε οι διαχειριστές να λαμβάνουν ένα e-mail όταν είναι εγγεγραμμένος νέος χρήστης;</t>
+    <t>Θέλετε οι διαχειριστές να λαμβάνουν ένα e-mail κατά την εγγραφή του νέου χρήστη;</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Το Microweber είναι δωρεάν πρόγραμμα δημιουργίας ιστότοπων μεταφοράς και απόθεσης ανοιχτού κώδικα και CMS. Είναι με άδεια MIT και χρησιμοποιούμε το Laravel PHP framework</t>
+    <t>Το Microweber είναι δωρεάν πρόγραμμα δημιουργίας ιστοτόπων και CMS με μεταφορά και απόθεση ανοιχτού κώδικα. Είναι υπό άδεια MIT και χρησιμοποιούμε το πλαίσιο PHP της Laravel</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Ένα ρυθμιστικό</t>
+    <t>Ένα Slider</t>
   </si>
   <si>
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Αποστολή προς διεύθυνση</t>
+    <t>Αποστολή στη διεύθυνση</t>
   </si>
   <si>
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Παραλαβή από διεύθυνση</t>
+    <t>Παραλαβή από τη διεύθυνση</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17427,7 +17427,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Δεν έχετε ρύθμιση e-mail και smtp συστήματος.</t>
+    <t>Δεν έχετε ρυθμίσεις ηλεκτρονικού ταχυδρομείου συστήματος και smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17439,7 +17439,7 @@
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Ρυθμίσεις φόρμας καθολικής επαφής</t>
+    <t>Καθολικές ρυθμίσεις φόρμας επικοινωνίας</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17463,19 +17463,19 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Χρησιμοποιήστε προσαρμοσμένες ρυθμίσεις αποστολέα για τις καθολικές φόρμες επαφών.</t>
+    <t>Χρησιμοποιήστε προσαρμοσμένες ρυθμίσεις αποστολέα για τις καθολικές φόρμες επικοινωνίας.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Από προεπιλογή, θα χρησιμοποιήσουμε τις ρυθμίσεις e-mail του συστήματος ιστότοπων.</t>
+    <t>Από προεπιλογή θα χρησιμοποιήσουμε ρυθμίσεις ηλεκτρονικού ταχυδρομείου συστήματος ιστότοπου.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Μπορείτε να αλλάξετε τις ρυθμίσεις ηλεκτρονικού ταχυδρομείου συστήματος εδώ.</t>
+    <t>Μπορείτε να αλλάξετε τις ρυθμίσεις e-mail συστήματος εδώ.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17487,25 +17487,25 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Στείλτε δεδομένα φόρμας επικοινωνίας σε παγκόσμιους δέκτες όταν υποβληθούν</t>
+    <t>Αποστολή δεδομένων φορμών επικοινωνίας σε παγκόσμιους δέκτες όταν υποβληθούν</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Σε διευθύνσεις e-mail</t>
+    <t>Σε διευθύνσεις ηλεκτρονικού ταχυδρομείου</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Η διεύθυνση e-mail των δεκτών διαχωρίζεται με κώμα.</t>
+    <t>Διεύθυνση ηλεκτρονικού ταχυδρομείου των παραληπτών χωρισμένη με κώμα.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Επικοινωνήστε με τον πάροχο φιλοξενίας σας για να ενεργοποιήσετε την επέκταση PHP SOAP.</t>
+    <t>Επικοινωνήστε με τον πάροχο φιλοξενίας για να ενεργοποιήσετε την επέκταση PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17523,9 +17523,6 @@
     <t>Remove logo</t>
   </si>
   <si>
-    <t>Κατάργηση λογότυπου</t>
-  </si>
-  <si>
     <t>Remove favicon</t>
   </si>
   <si>
@@ -17547,7 +17544,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Προϊόντα V2</t>
+    <t>ΠροϊόνταV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17565,10 +17562,13 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Αριθμός ορατών μαρτυριών</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>Το πρότυπο ενότητας έχει αλλάξει</t>
+    <t>Το πρότυπο μονάδας έχει αλλάξει</t>
   </si>
   <si>
     <t>Content versions</t>
@@ -17595,7 +17595,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Ελεγμένη λίστα</t>
+    <t>Επιλεγμένη λίστα</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17625,7 +17625,7 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Δύο στήλες κειμένου με εικονίδιο και τίτλο</t>
+    <t>Δύο στήλες κειμένου με το εικονίδιο και τον τίτλο</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17658,7 +17658,7 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Ρυθμίστε τις προτιμήσεις captcha από </t>
+    <t xml:space="preserve">Ρυθμίστε τις προτιμήσεις σας captcha από </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
@@ -17691,7 +17691,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Αποστολή δεδομένων φόρμας επικοινωνίας σε προσαρμοσμένους δέκτες όταν υποβληθεί</t>
+    <t>Στείλτε τα δεδομένα της φόρμας επικοινωνίας σε προσαρμοσμένους δέκτες όταν υποβληθούν</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17703,7 +17703,7 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Από προεπιλογή, θα χρησιμοποιήσουμε τις καθολικές ρυθμίσεις φόρμας επικοινωνίας.</t>
+    <t>Από προεπιλογή θα χρησιμοποιήσουμε τις καθολικές ρυθμίσεις της φόρμας επικοινωνίας.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
@@ -17715,49 +17715,43 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Αυτόματη απάντηση μηνύματος στο χρήστη</t>
+    <t>Μήνυμα αυτόματης απάντησης στον χρήστη</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Ενεργοποιήστε το μήνυμα αυτόματης απάντησης στο χρήστη</t>
+    <t>Ενεργοποίηση αυτόματης απάντησης μηνύματος στον χρήστη</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Επιτρέψτε στους χρήστες να λαμβάνουν "Ευχαριστήρια μηνύματα ηλεκτρονικού ταχυδρομείου μετά τη συνδρομή."</t>
+    <t>Επιτρέψτε στους χρήστες να λαμβάνουν "Ευχαριστώ μηνύματα ηλεκτρονικού ταχυδρομείου μετά τη συνδρομή."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Θέμα αυτόματης απόκρισης</t>
-  </si>
-  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Οι αυτόματες απαντήσεις σάς επιτρέπουν να ρυθμίζετε αυτοματοποιημένες απαντήσεις σε εισερχόμενα email</t>
+    <t>Οι αυτόματες απαντήσεις σάς επιτρέπουν να ρυθμίζετε αυτοματοποιημένες απαντήσεις στα εισερχόμενα email</t>
   </si>
   <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Αυτόματη απάντηση μηνύματος</t>
-  </si>
-  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>Αυτόματη απάντηση e-mail που επιστρέφεται στον χρήστη</t>
+    <t>Αυτόματη απάντηση e-mail αποστέλλεται στον χρήστη</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Αυτόματη απόκριση προσαρμοσμένου αποστολέα</t>
+    <t>Αυτόματη απάντηση προσαρμοσμένου αποστολέα</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17781,31 +17775,31 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Αυτόματη απάντηση απάντησης σε e-mail</t>
+    <t>Αυτόματη απάντηση απάντηση σε e-mail</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Όταν ο χρήστης λάβει το μήνυμα αυτόματης απάντησης, μπορεί να απαντήσει πίσω για να απαντήσει σε email.</t>
+    <t>Όταν ο χρήστης λάβει το μήνυμα αυτόματης απάντησης, μπορεί να απαντήσει για να απαντήσει σε email.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Αυτόματη απάντηση συνημμένων ηλεκτρονικού ταχυδρομείου</t>
+    <t>Αυτόματη απάντηση στα συνημμένα e-mail</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Αν θέλετε να επισυνάψετε εικόνες og, πρέπει να τις ανεβάσετε στη συλλογή από το "Προσθήκη μέσων"</t>
+    <t>Εάν θέλετε να επισυνάψετε εικόνες og, πρέπει να τις ανεβάσετε στη συλλογή από την "Προσθήκη πολυμέσων"</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Δεν έχετε ακόμα δημοσιεύσεις</t>
+    <t>Δεν έχετε ακόμη αναρτήσεις</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
@@ -17832,11 +17826,11 @@
   </si>
   <si>
     <t>Πώς να γράψετε περιγραφές προϊόντων που πωλούν
-                                                    Ένα από τα καλύτερα πράγματα που μπορείτε να κάνετε για να κάνετε το κατάστημά σας επιτυχημένο είναι να επενδύσετε λίγο χρόνο στη σύνταξη εξαιρετικών περιγραφών προϊόντων. Θέλετε να παράσχετε λεπτομερείς αλλά συνοπτικές πληροφορίες που θα προσελκύσουν δυνητικούς πελάτες να αγοράσουν.
+                                                    Ένα από τα καλύτερα πράγματα που μπορείτε να κάνετε για να κάνετε το κατάστημά σας επιτυχημένο είναι να αφιερώσετε λίγο χρόνο στη σύνταξη εξαιρετικών περιγραφών προϊόντων. Θέλετε να παρέχετε λεπτομερείς αλλά συνοπτικές πληροφορίες που θα δελεάσουν τους πιθανούς πελάτες να αγοράσουν.
                                                     Σκεφτείτε σαν καταναλωτής
-                                                    Σκεφτείτε τι θα θέλατε να γνωρίζετε ως καταναλωτής και, στη συνέχεια, συμπεριλάβετε αυτές τις λειτουργίες στην περιγραφή σας. Για ρούχα: υλικά και εφαρμογή. Για φαγητό: συστατικά και πώς παρασκευάστηκε. Οι κουκκίδες είναι οι φίλοι σας κατά την καταχώριση λειτουργιών
-                                                   - προσπαθήστε να
-                                                            περιορίσετε κάθε μία σε 5-8 λέξεις.</t>
+                                                    Σκεφτείτε τι θα θέλατε να μάθετε ως καταναλωτής και, στη συνέχεια, συμπεριλάβετε αυτές τις λειτουργίες στην περιγραφή σας. Για ρούχα: υλικά και εφαρμογή. Για φαγητό: συστατικά και πώς παρασκευάστηκε. Οι κουκκίδες είναι φίλοι σας όταν αναφέρετε
+                                                   λειτουργίες — προσπαθήστε να
+                                                            περιορίσετε την καθεμία σε 5-8 λέξεις.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17845,352 +17839,280 @@
     <t>Γλώσσα διαχειριστή</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Προσθήκη ανάρτησης</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Προσθήκη υποσελίδας</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Η κατηγορία διαγράφηκε</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Το περιεχόμενο διαγράφηκε</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Κατηγορίες αναζήτησης</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε περιεχόμενο</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Κάρτα</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Οποιος</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Οριο</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Είστε βέβαιοι ότι θέλετε να διαγράψετε;</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Δεν έχετε κανένα προϊόν</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Πίσω στο</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>κατηγορίες</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Τα προσαρμοσμένα πεδία αποθηκεύονται</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Υπάρχοντα πεδία</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Επιλέξτε από τα υπάρχοντα πεδία σας παρακάτω</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Προσθήκη νέων πεδίων</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Προσθήκη νέου προσαρμοσμένου πεδίου από τη λίστα παρακάτω</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Τα χωράφια σας</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Λίστα με τα προσαρμοσμένα πεδία που έχετε προσθέσει</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Στοκ</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Σύστημα</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Ιστολόγιο</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ανακατεύθυνση προγράμματος περιήγησης</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Ενσωμάτωση</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Εργαλείο εισαγωγής εξαγωγής</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Αυτόνομη ενημέρωση</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Προεπισκόπηση πακέτου</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Διαδήλωση</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Χρήση</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Ρεύμα</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Εξπρές</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Πρώτη τάξη</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Κάντε κλικ &amp; Συλλέξτε</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Φόντο βίντεο</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Πολυγλωσσία</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Μπορείτε να ενεργοποιήσετε τη μονάδα πολλαπλών γλωσσών για χρήση πολλαπλών γλωσσών</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Λειτουργία πολλαπλών γλωσσών</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Ενεργοποιήστε τη λειτουργία πολλών γλωσσών για να έχετε πολλές γλώσσες για το περιεχόμενό σας.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Οι μεταφράσεις εισάγονται</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δεν βρέθηκαν μεταφράσεις στη βάση δεδομένων. Θέλετε να εισάγετε μεταφράσεις; </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Το καλάθι σας είναι άδειο.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Επεξεργαστής κώδικα</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Ιστολόγιο</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>τίτλους</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Τίτλοι 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Τίτλοι 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Τίτλοι 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Τίτλοι 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Τίτλοι 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Τίτλοι 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Τίτλοι 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Τίτλοι 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>μπλοκ κειμένου</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Μπλοκ κειμένου 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>χαρακτηριστικά</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Χαρακτηριστικά 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Χαρακτηριστικά 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Χαρακτηριστικά 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Χαρακτηριστικά 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>πλέγματα</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>μενού</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Μενού - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Μενού - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Μενού - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Μενού - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Μενού - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>υποσέλιδα</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Υποσέλιδα 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Υποσέλιδα 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Υποσέλιδα 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Υποσέλιδα 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>άλλα</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>τιμολόγηση</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Τιμολόγηση 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Προεπιλεγμένες διατάξεις</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Δεν υπάρχει περιεχόμενο εδώ</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Τα προσαρμοσμένα πεδία αποθηκεύονται</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Υπάρχοντα πεδία</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Επιλέξτε από τα υπάρχοντα πεδία σας παρακάτω</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Προσθήκη νέων πεδίων</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Προσθήκη νέου προσαρμοσμένου πεδίου από τη λίστα παρακάτω</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Τα χωράφια σας</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Λίστα με τα προσαρμοσμένα πεδία που έχετε προσθέσει</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Νέα εισαγωγή</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18239,498 +18161,6 @@
   </si>
   <si>
     <t>Επαναφόρτωση στυλ</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Σύνδεσμοι προς</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Προεπισκόπηση πακέτου</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Διαδήλωση</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Χρήση</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Ρεύμα</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Παραγγέλλω πάλι</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Σύστημα</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Ανακατεύθυνση προγράμματος περιήγησης</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Ενσωμάτωση</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Αυτόνομη ενημέρωση</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Χρειάζεστε κλειδί άδειας χρήσης για να εγκαταστήσετε αυτό το πακέτο</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Αυτό το πακέτο είναι premium και πρέπει να έχετε κλειδί άδειας χρήσης για να το εγκαταστήσετε</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Χρειάζεστε κλειδί άδειας χρήσης</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Ενεργοποιήθηκε η άδεια</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Επαναφόρτωση σελίδας</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Η άδεια δεν ενεργοποιήθηκε</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Ενημερώσεις συστήματος</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Ελέγξτε για ενημερώσεις συστήματος</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Πίσω στη λίστα</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Η κατηγορία πρέπει να έχει όνομα</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Κρύβεται η κατηγορία;</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Εάν το ορίσετε σε ΝΑΙ, αυτή η κατηγορία θα κρυφτεί από τον ιστότοπο</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Αναφορά</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Το καλάθι σας είναι άδειο.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Βρέθηκαν αποτελέσματα</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Εάν επιλέξετε το Ποσοστό από το πεδίο επιλογής, θα υπολογιστεί αυτόματα από την Τιμή και την τιμή προσφοράς του προϊόντος.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multillanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Προχωρήστε στο Checkout</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Τελευταία έκδοση</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Εμφάνιση</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>του</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>Αποτελέσματα)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Τίτλος σελίδας - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Τίτλος σελίδας - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Οροι χρήσης</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Παράδοση και επιστροφές</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Περίπου 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Περίπου 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Περίπου 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Σπίτι 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Σπίτι 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Πρέπει να κάνετε κλικ στο κουμπί εφαρμογής προτύπου για να αλλάξετε το πρότυπό σας</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Αναζήτηση με κριτήρια</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Ημερομηνία από</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Ορίστε τις παραγγελίες από την ημερομηνία</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Ημερομηνία έως</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Ορίστε τις παραγγελίες μέχρι σήμερα</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Ποσό παραγγελίας από</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Εμφάνιση της παραγγελίας με το ελάχιστο ποσό</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Ποσό παραγγελίας σε</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Εμφάνιση της παραγγελίας με το μέγιστο ποσό</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Αναζήτηση ανά προϊόντα...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Αναζήτηση ανά προϊόντα</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Κατάσταση πληρωμής</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Δωρεάν αναζήτηση μέσω τηλεφώνου, ονόματος, email κλπ...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Υποβάλετε αυτό το κριτήριο</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Επαναφορά φίλτρου</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Εξαγωγή όλων</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Επιλέξτε ταξινόμηση</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Ημερομηνία παραγγελίας</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Νέο &gt; Παλιό]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Παλιό &gt; Νέο]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Υψηλό &gt; Χαμηλό]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Χαμηλό &gt; Υψηλό]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Η παραγγελία ολοκληρώθηκε</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>μεταφράσεις από την ενότητα multilnaguage έχουν βρεθεί στη βάση δεδομένων σας.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Προειδοποίηση! Η αλλαγή της προεπιλεγμένης γλώσσας μπορεί να σπάσει τις μεταφράσεις στον ιστότοπό σας.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Είστε βέβαιοι ότι θέλετε να συνεχίσετε;</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Προειδοποίηση! Η αλλαγή της προεπιλεγμένης γλώσσας ενδέχεται να χαλάσει τον ιστότοπό σας.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Λεπτομέρειες αποστολής</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>η παραγγελία δεν έχει ολοκληρωθεί ακόμα</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>η παραγγελία ολοκληρώθηκε</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Γρήγορη ματιά </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Αντικαταστήστε τις γλωσσικές τιμές</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Οι μεταφράσεις εισάγονται</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δεν βρέθηκαν μεταφράσεις στη βάση δεδομένων. Θέλετε να εισάγετε μεταφράσεις; </t>
   </si>
 </sst>
 </file>
@@ -19066,7 +18496,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69456,7 +68886,7 @@
         <v>5744</v>
       </c>
       <c r="D2964" t="s">
-        <v>5745</v>
+        <v>1407</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69470,10 +68900,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5746</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5747</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69487,10 +68917,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5748</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5749</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69504,10 +68934,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5750</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5751</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69521,10 +68951,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5752</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5753</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69538,10 +68968,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5754</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5755</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69555,10 +68985,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5756</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5757</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69572,10 +69002,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5758</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5759</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69589,10 +69019,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5760</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5761</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69606,10 +69036,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5762</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5763</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69623,10 +69053,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5764</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5765</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69640,10 +69070,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5766</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5767</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69657,10 +69087,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5768</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5769</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69674,10 +69104,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5770</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5771</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69691,10 +69121,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5772</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5773</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69708,10 +69138,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5774</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5775</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69725,10 +69155,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5776</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5777</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69742,10 +69172,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5778</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5779</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69759,10 +69189,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5780</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5781</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69776,10 +69206,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5782</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>3871</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -70221,7 +69651,7 @@
         <v>5833</v>
       </c>
       <c r="D3009" t="s">
-        <v>5834</v>
+        <v>3249</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70235,10 +69665,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5835</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5836</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70252,10 +69682,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5837</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5838</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70269,10 +69699,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="D3012" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70286,10 +69716,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
       <c r="D3013" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70303,10 +69733,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5841</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5842</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70320,10 +69750,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5843</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5844</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70337,10 +69767,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5845</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5846</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70354,10 +69784,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3017" t="s">
         <v>5847</v>
-      </c>
-      <c r="D3017" t="s">
-        <v>3346</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70867,7 +70297,7 @@
         <v>5903</v>
       </c>
       <c r="D3047" t="s">
-        <v>5904</v>
+        <v>1981</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70881,10 +70311,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3048" t="s">
         <v>5905</v>
-      </c>
-      <c r="D3048" t="s">
-        <v>5906</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70898,10 +70328,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="D3049" t="s">
-        <v>5908</v>
+        <v>823</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70915,10 +70345,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="D3050" t="s">
-        <v>5910</v>
+        <v>5908</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70932,10 +70362,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="D3051" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70949,10 +70379,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="D3052" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70966,10 +70396,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="D3053" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70983,10 +70413,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="D3054" t="s">
-        <v>5918</v>
+        <v>5916</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -71000,10 +70430,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5919</v>
+        <v>5917</v>
       </c>
       <c r="D3055" t="s">
-        <v>5920</v>
+        <v>5918</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -71017,10 +70447,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5921</v>
+        <v>5919</v>
       </c>
       <c r="D3056" t="s">
-        <v>5922</v>
+        <v>5920</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -71034,10 +70464,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5923</v>
+        <v>5921</v>
       </c>
       <c r="D3057" t="s">
-        <v>5924</v>
+        <v>5922</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -71051,10 +70481,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D3058" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71068,10 +70498,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5927</v>
+        <v>5925</v>
       </c>
       <c r="D3059" t="s">
-        <v>5928</v>
+        <v>5926</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71085,10 +70515,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5929</v>
+        <v>5927</v>
       </c>
       <c r="D3060" t="s">
-        <v>5930</v>
+        <v>5928</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71102,10 +70532,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5931</v>
+        <v>5929</v>
       </c>
       <c r="D3061" t="s">
-        <v>5932</v>
+        <v>5930</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71116,13 +70546,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
+        <v>5931</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3062" t="s">
         <v>5933</v>
-      </c>
-      <c r="C3062" t="s">
-        <v>5934</v>
-      </c>
-      <c r="D3062" t="s">
-        <v>5935</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71136,10 +70566,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5936</v>
+        <v>5934</v>
       </c>
       <c r="D3063" t="s">
-        <v>5937</v>
+        <v>5935</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71153,10 +70583,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
       <c r="D3064" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71170,10 +70600,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5940</v>
+        <v>5938</v>
       </c>
       <c r="D3065" t="s">
-        <v>5941</v>
+        <v>5939</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71187,10 +70617,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5942</v>
+        <v>5940</v>
       </c>
       <c r="D3066" t="s">
-        <v>5943</v>
+        <v>5941</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71204,10 +70634,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="D3067" t="s">
-        <v>5945</v>
+        <v>5943</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71221,10 +70651,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5946</v>
+        <v>5944</v>
       </c>
       <c r="D3068" t="s">
-        <v>5947</v>
+        <v>5945</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71238,10 +70668,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5948</v>
+        <v>5946</v>
       </c>
       <c r="D3069" t="s">
-        <v>5949</v>
+        <v>5947</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71255,10 +70685,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="D3070" t="s">
-        <v>5951</v>
+        <v>5949</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71272,10 +70702,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5952</v>
+        <v>5950</v>
       </c>
       <c r="D3071" t="s">
-        <v>5953</v>
+        <v>5951</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71289,10 +70719,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5954</v>
+        <v>5952</v>
       </c>
       <c r="D3072" t="s">
-        <v>5955</v>
+        <v>5952</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71306,10 +70736,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5956</v>
+        <v>5953</v>
       </c>
       <c r="D3073" t="s">
-        <v>5957</v>
+        <v>5953</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71323,10 +70753,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5958</v>
+        <v>5954</v>
       </c>
       <c r="D3074" t="s">
-        <v>5959</v>
+        <v>5955</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71340,10 +70770,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5960</v>
+        <v>5956</v>
       </c>
       <c r="D3075" t="s">
-        <v>5961</v>
+        <v>5957</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71357,10 +70787,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="D3076" t="s">
-        <v>5963</v>
+        <v>5959</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71374,10 +70804,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5964</v>
+        <v>5960</v>
       </c>
       <c r="D3077" t="s">
-        <v>5965</v>
+        <v>5961</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71391,10 +70821,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5966</v>
+        <v>5962</v>
       </c>
       <c r="D3078" t="s">
-        <v>5967</v>
+        <v>5963</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71408,10 +70838,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5968</v>
+        <v>5964</v>
       </c>
       <c r="D3079" t="s">
-        <v>5969</v>
+        <v>5965</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71425,10 +70855,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5970</v>
+        <v>5966</v>
       </c>
       <c r="D3080" t="s">
-        <v>5971</v>
+        <v>5967</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71442,10 +70872,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5972</v>
+        <v>5968</v>
       </c>
       <c r="D3081" t="s">
-        <v>5973</v>
+        <v>5969</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71459,10 +70889,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5974</v>
+        <v>5970</v>
       </c>
       <c r="D3082" t="s">
-        <v>5975</v>
+        <v>5971</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71476,10 +70906,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5976</v>
+        <v>5972</v>
       </c>
       <c r="D3083" t="s">
-        <v>5977</v>
+        <v>5973</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71493,10 +70923,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5978</v>
+        <v>5974</v>
       </c>
       <c r="D3084" t="s">
-        <v>5979</v>
+        <v>5975</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71510,10 +70940,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5980</v>
+        <v>5976</v>
       </c>
       <c r="D3085" t="s">
-        <v>5981</v>
+        <v>5977</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71527,10 +70957,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5982</v>
+        <v>5978</v>
       </c>
       <c r="D3086" t="s">
-        <v>5983</v>
+        <v>5979</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71544,10 +70974,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5984</v>
+        <v>5980</v>
       </c>
       <c r="D3087" t="s">
-        <v>5985</v>
+        <v>5981</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71561,10 +70991,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5986</v>
+        <v>5982</v>
       </c>
       <c r="D3088" t="s">
-        <v>5987</v>
+        <v>5983</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71578,10 +71008,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5988</v>
+        <v>5984</v>
       </c>
       <c r="D3089" t="s">
-        <v>5989</v>
+        <v>5985</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71595,10 +71025,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5990</v>
+        <v>5986</v>
       </c>
       <c r="D3090" t="s">
-        <v>5991</v>
+        <v>5987</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71612,10 +71042,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="D3091" t="s">
-        <v>5993</v>
+        <v>5989</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71629,10 +71059,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5994</v>
+        <v>5990</v>
       </c>
       <c r="D3092" t="s">
-        <v>5995</v>
+        <v>5991</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71646,10 +71076,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5996</v>
+        <v>5992</v>
       </c>
       <c r="D3093" t="s">
-        <v>5997</v>
+        <v>5993</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71663,10 +71093,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5998</v>
+        <v>5994</v>
       </c>
       <c r="D3094" t="s">
-        <v>5999</v>
+        <v>5995</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71680,10 +71110,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>6000</v>
+        <v>5996</v>
       </c>
       <c r="D3095" t="s">
-        <v>6001</v>
+        <v>5997</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71697,10 +71127,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>6002</v>
+        <v>5998</v>
       </c>
       <c r="D3096" t="s">
-        <v>6003</v>
+        <v>5999</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71714,10 +71144,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>6004</v>
+        <v>6000</v>
       </c>
       <c r="D3097" t="s">
-        <v>6005</v>
+        <v>6001</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71731,10 +71161,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>6006</v>
+        <v>6002</v>
       </c>
       <c r="D3098" t="s">
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71748,10 +71178,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>6008</v>
+        <v>6004</v>
       </c>
       <c r="D3099" t="s">
-        <v>6009</v>
+        <v>6005</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71765,10 +71195,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>6010</v>
+        <v>6006</v>
       </c>
       <c r="D3100" t="s">
-        <v>6011</v>
+        <v>6007</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71782,10 +71212,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>6012</v>
+        <v>6008</v>
       </c>
       <c r="D3101" t="s">
-        <v>6013</v>
+        <v>6009</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71799,10 +71229,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>6014</v>
+        <v>6010</v>
       </c>
       <c r="D3102" t="s">
-        <v>6015</v>
+        <v>6011</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71816,10 +71246,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>6016</v>
+        <v>6012</v>
       </c>
       <c r="D3103" t="s">
-        <v>6017</v>
+        <v>6013</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71833,10 +71263,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>6018</v>
+        <v>6014</v>
       </c>
       <c r="D3104" t="s">
-        <v>6019</v>
+        <v>6015</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71850,10 +71280,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>6020</v>
+        <v>6016</v>
       </c>
       <c r="D3105" t="s">
-        <v>6021</v>
+        <v>6017</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71867,10 +71297,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>6022</v>
+        <v>6018</v>
       </c>
       <c r="D3106" t="s">
-        <v>6023</v>
+        <v>6019</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71884,10 +71314,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>6024</v>
+        <v>6020</v>
       </c>
       <c r="D3107" t="s">
-        <v>6025</v>
+        <v>6021</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71901,10 +71331,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>6026</v>
+        <v>6022</v>
       </c>
       <c r="D3108" t="s">
-        <v>6027</v>
+        <v>6023</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71917,11 +71347,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6029</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71934,11 +71364,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6025</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71952,10 +71382,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6030</v>
+        <v>6026</v>
       </c>
       <c r="D3111" t="s">
-        <v>6030</v>
+        <v>6027</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71969,10 +71399,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6031</v>
+        <v>6028</v>
       </c>
       <c r="D3112" t="s">
-        <v>6031</v>
+        <v>6029</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71986,10 +71416,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6032</v>
+        <v>6030</v>
       </c>
       <c r="D3113" t="s">
-        <v>6033</v>
+        <v>6031</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -72003,10 +71433,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6034</v>
+        <v>6032</v>
       </c>
       <c r="D3114" t="s">
-        <v>6035</v>
+        <v>6033</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72020,10 +71450,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6036</v>
+        <v>6034</v>
       </c>
       <c r="D3115" t="s">
-        <v>6037</v>
+        <v>6035</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72037,10 +71467,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6038</v>
+        <v>6036</v>
       </c>
       <c r="D3116" t="s">
-        <v>6039</v>
+        <v>6037</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72054,10 +71484,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6040</v>
+        <v>6038</v>
       </c>
       <c r="D3117" t="s">
-        <v>6041</v>
+        <v>6039</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72071,10 +71501,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6042</v>
+        <v>6040</v>
       </c>
       <c r="D3118" t="s">
-        <v>6043</v>
+        <v>6041</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72088,1678 +71518,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6044</v>
+        <v>6042</v>
       </c>
       <c r="D3119" t="s">
-        <v>6045</v>
+        <v>6043</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6115</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5933</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6125</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6125</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6197</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6198</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6199</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6200</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6201</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6203</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6206</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6207</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6208</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4382</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6220</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6221</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6222</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6223</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6224</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2959</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6225</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2250</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6226</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6227</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6228</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6229</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6230</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6231</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6232</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6233</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
